--- a/regoutput_soc.xlsx
+++ b/regoutput_soc.xlsx
@@ -1,599 +1,592 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aaudk-my.sharepoint.com/personal/emni15_student_aau_dk/Documents/10. SEMESTER (SPECIALE)/Speciale-oecon/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="114_{C459082E-EF07-7D4F-9F46-8A065AC8F857}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <workbookPr date1904="false"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="13120" windowHeight="6100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="regoutput_soc" sheetId="1" r:id="rId1"/>
+    <sheet name="regoutput_soc" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="189">
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>E3a_Estimate</t>
-  </si>
-  <si>
-    <t>E3a_Pr(&gt;|t|)</t>
-  </si>
-  <si>
-    <t>E3a_siglvl</t>
-  </si>
-  <si>
-    <t>E4a_Estimate</t>
-  </si>
-  <si>
-    <t>E4a_Pr(&gt;|t|)</t>
-  </si>
-  <si>
-    <t>E4a_siglvl</t>
-  </si>
-  <si>
-    <t>E1a_Estimate</t>
-  </si>
-  <si>
-    <t>E1a_Pr(&gt;|t|)</t>
-  </si>
-  <si>
-    <t>E1a_siglvl</t>
-  </si>
-  <si>
-    <t>E2a_Estimate</t>
-  </si>
-  <si>
-    <t>E2a_Pr(&gt;|t|)</t>
-  </si>
-  <si>
-    <t>E2a_siglvl</t>
-  </si>
-  <si>
-    <t>(Intercept)</t>
-  </si>
-  <si>
-    <t>1.91946110171071</t>
-  </si>
-  <si>
-    <t>0.000000000000000000556220637729669</t>
-  </si>
-  <si>
-    <t>***</t>
-  </si>
-  <si>
-    <t>2.41733974287332</t>
-  </si>
-  <si>
-    <t>0.000000000000000000000000000000000000384267610336584</t>
-  </si>
-  <si>
-    <t>2.57490423410655</t>
-  </si>
-  <si>
-    <t>0.000000000000000000000000000000000000000462894921095763</t>
-  </si>
-  <si>
-    <t>2.13020903048569</t>
-  </si>
-  <si>
-    <t>0.00000000000000000000000193450566860009</t>
-  </si>
-  <si>
-    <t>factor(bra10grp_code)3</t>
-  </si>
-  <si>
-    <t>0.324212656849855</t>
-  </si>
-  <si>
-    <t>0.0939406498576377</t>
-  </si>
-  <si>
-    <t>.</t>
-  </si>
-  <si>
-    <t>0.0296519620732252</t>
-  </si>
-  <si>
-    <t>0.863308129370011</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="189">
+  <si>
+    <t xml:space="preserve"/>
+  </si>
+  <si>
+    <t xml:space="preserve">E3a_Estimate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E3a_Pr(&gt;|t|)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E3a_siglvl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E4a_Estimate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E4a_Pr(&gt;|t|)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E4a_siglvl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E1a_Estimate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E1a_Pr(&gt;|t|)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E1a_siglvl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E2a_Estimate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E2a_Pr(&gt;|t|)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E2a_siglvl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Intercept)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91946110171071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.000000000000000000556220637729669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.41733974287332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.000000000000000000000000000000000000384267610336584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.57490423410655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.000000000000000000000000000000000000000462894921095763</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.13020903048569</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00000000000000000000000193450566860009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">factor(bra10grp_code)3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.324212656849855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0939406498576377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0296519620732252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.863308129370011</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>0.0699627944724724</t>
-  </si>
-  <si>
-    <t>0.654425278821917</t>
-  </si>
-  <si>
-    <t>0.142519094005413</t>
-  </si>
-  <si>
-    <t>0.417811841942452</t>
-  </si>
-  <si>
-    <t>factor(bra10grp_code)4</t>
-  </si>
-  <si>
-    <t>0.0248109718196168</t>
-  </si>
-  <si>
-    <t>0.838027548234778</t>
-  </si>
-  <si>
-    <t>-0.141385344803236</t>
-  </si>
-  <si>
-    <t>0.187845463699358</t>
-  </si>
-  <si>
-    <t>-0.00905600426388179</t>
-  </si>
-  <si>
-    <t>0.923719375297611</t>
-  </si>
-  <si>
-    <t>0.104190010066825</t>
-  </si>
-  <si>
-    <t>0.313920312174417</t>
-  </si>
-  <si>
-    <t>factor(bra10grp_code)5</t>
-  </si>
-  <si>
-    <t>0.347970779033825</t>
-  </si>
-  <si>
-    <t>0.0374062152374704</t>
-  </si>
-  <si>
-    <t>*</t>
-  </si>
-  <si>
-    <t>0.067383880870658</t>
-  </si>
-  <si>
-    <t>0.616513273720838</t>
-  </si>
-  <si>
-    <t>0.107694208484811</t>
-  </si>
-  <si>
-    <t>0.324275210924594</t>
-  </si>
-  <si>
-    <t>0.211549802068897</t>
-  </si>
-  <si>
-    <t>0.140442187208255</t>
-  </si>
-  <si>
-    <t>factor(bra10grp_code)6</t>
-  </si>
-  <si>
-    <t>0.0983202943653256</t>
-  </si>
-  <si>
-    <t>0.540331860516155</t>
-  </si>
-  <si>
-    <t>0.0903032157892806</t>
-  </si>
-  <si>
-    <t>0.466959241623667</t>
-  </si>
-  <si>
-    <t>-0.0220205712184863</t>
-  </si>
-  <si>
-    <t>0.871295692232414</t>
-  </si>
-  <si>
-    <t>0.191679706595459</t>
-  </si>
-  <si>
-    <t>0.162827319185899</t>
-  </si>
-  <si>
-    <t>factor(bra10grp_code)7</t>
-  </si>
-  <si>
-    <t>0.411088698263052</t>
-  </si>
-  <si>
-    <t>0.00726018108784477</t>
-  </si>
-  <si>
-    <t>**</t>
-  </si>
-  <si>
-    <t>-0.0883030329828427</t>
-  </si>
-  <si>
-    <t>0.684543740879331</t>
-  </si>
-  <si>
-    <t>-0.0464182797096798</t>
-  </si>
-  <si>
-    <t>0.831315351104191</t>
-  </si>
-  <si>
-    <t>0.108272519355556</t>
-  </si>
-  <si>
-    <t>0.627860055347289</t>
-  </si>
-  <si>
-    <t>factor(bra10grp_code)8</t>
-  </si>
-  <si>
-    <t>0.14205039856984</t>
-  </si>
-  <si>
-    <t>0.291404414019607</t>
-  </si>
-  <si>
-    <t>-0.133631172331204</t>
-  </si>
-  <si>
-    <t>0.278157575550901</t>
-  </si>
-  <si>
-    <t>0.113802837062875</t>
-  </si>
-  <si>
-    <t>0.575759695693739</t>
-  </si>
-  <si>
-    <t>0.0465087995437349</t>
-  </si>
-  <si>
-    <t>0.720931529457695</t>
-  </si>
-  <si>
-    <t>factor(udgrp)2</t>
-  </si>
-  <si>
-    <t>0.239875354490133</t>
-  </si>
-  <si>
-    <t>0.0633972931305277</t>
-  </si>
-  <si>
-    <t>0.105869720532377</t>
-  </si>
-  <si>
-    <t>0.350454506132735</t>
-  </si>
-  <si>
-    <t>-0.00927004184987675</t>
-  </si>
-  <si>
-    <t>0.919100771788521</t>
-  </si>
-  <si>
-    <t>0.00779475658607315</t>
-  </si>
-  <si>
-    <t>0.945746374582695</t>
-  </si>
-  <si>
-    <t>factor(udgrp)3</t>
-  </si>
-  <si>
-    <t>0.100219995167931</t>
-  </si>
-  <si>
-    <t>0.523763581406314</t>
-  </si>
-  <si>
-    <t>0.165862666703999</t>
-  </si>
-  <si>
-    <t>0.181824186293281</t>
-  </si>
-  <si>
-    <t>-0.0548756682556155</t>
-  </si>
-  <si>
-    <t>0.621576913184696</t>
-  </si>
-  <si>
-    <t>0.0112216618907099</t>
-  </si>
-  <si>
-    <t>0.930974973174249</t>
-  </si>
-  <si>
-    <t>factor(aldergrp)2</t>
-  </si>
-  <si>
-    <t>0.280456404113265</t>
-  </si>
-  <si>
-    <t>0.00636606351891673</t>
-  </si>
-  <si>
-    <t>0.338574967682421</t>
-  </si>
-  <si>
-    <t>0.000637873730698062</t>
-  </si>
-  <si>
-    <t>0.123955810523261</t>
-  </si>
-  <si>
-    <t>0.287609017478216</t>
-  </si>
-  <si>
-    <t>0.390200922269678</t>
-  </si>
-  <si>
-    <t>0.000103187520374398</t>
-  </si>
-  <si>
-    <t>factor(aldergrp)3</t>
-  </si>
-  <si>
-    <t>0.621585362576525</t>
-  </si>
-  <si>
-    <t>0.0000975632382825225</t>
-  </si>
-  <si>
-    <t>0.550505056037416</t>
-  </si>
-  <si>
-    <t>0.00029002119853319</t>
-  </si>
-  <si>
-    <t>0.367518332133901</t>
-  </si>
-  <si>
-    <t>0.033772495090964</t>
-  </si>
-  <si>
-    <t>0.658878901854229</t>
-  </si>
-  <si>
-    <t>0.0000147026804205393</t>
-  </si>
-  <si>
-    <t>factor(loengrp)2</t>
-  </si>
-  <si>
-    <t>-0.0267701481506306</t>
-  </si>
-  <si>
-    <t>0.856963594733944</t>
-  </si>
-  <si>
-    <t>-0.127163413623719</t>
-  </si>
-  <si>
-    <t>0.357226329253681</t>
-  </si>
-  <si>
-    <t>0.110666447189673</t>
-  </si>
-  <si>
-    <t>0.46205175512072</t>
-  </si>
-  <si>
-    <t>0.076214900868596</t>
-  </si>
-  <si>
-    <t>0.599525072816802</t>
-  </si>
-  <si>
-    <t>factor(loengrp)3</t>
-  </si>
-  <si>
-    <t>0.0204866650299134</t>
-  </si>
-  <si>
-    <t>0.911414765414366</t>
-  </si>
-  <si>
-    <t>0.249222995840573</t>
-  </si>
-  <si>
-    <t>0.0923573785436216</t>
-  </si>
-  <si>
-    <t>0.291854902473441</t>
-  </si>
-  <si>
-    <t>0.0386261847773042</t>
-  </si>
-  <si>
-    <t>0.129358737387523</t>
-  </si>
-  <si>
-    <t>0.450833718032272</t>
-  </si>
-  <si>
-    <t>factor(loengrp)4</t>
-  </si>
-  <si>
-    <t>0.040954330457389</t>
-  </si>
-  <si>
-    <t>0.784758691998658</t>
-  </si>
-  <si>
-    <t>-0.0320616242256434</t>
-  </si>
-  <si>
-    <t>0.807557327891219</t>
-  </si>
-  <si>
-    <t>0.0915130801258983</t>
-  </si>
-  <si>
-    <t>0.434409708944806</t>
-  </si>
-  <si>
-    <t>0.236825355607626</t>
-  </si>
-  <si>
-    <t>0.0720553156669271</t>
-  </si>
-  <si>
-    <t>Leveremodtageoutput</t>
-  </si>
-  <si>
-    <t>0.109446027460149</t>
-  </si>
-  <si>
-    <t>0.599465141095096</t>
-  </si>
-  <si>
-    <t>0.103548546790176</t>
-  </si>
-  <si>
-    <t>0.459761299562963</t>
-  </si>
-  <si>
-    <t>0.180485517478273</t>
-  </si>
-  <si>
-    <t>0.169956135142941</t>
-  </si>
-  <si>
-    <t>0.210318372969123</t>
-  </si>
-  <si>
-    <t>0.223168397672694</t>
-  </si>
-  <si>
-    <t>Startovervågestopperobottter</t>
-  </si>
-  <si>
-    <t>0.0743522994053788</t>
-  </si>
-  <si>
-    <t>0.742099924941389</t>
-  </si>
-  <si>
-    <t>-0.187877952715507</t>
-  </si>
-  <si>
-    <t>0.284164077644837</t>
-  </si>
-  <si>
-    <t>-0.162417647807981</t>
-  </si>
-  <si>
-    <t>0.328456427109961</t>
-  </si>
-  <si>
-    <t>0.0926566343644065</t>
-  </si>
-  <si>
-    <t>0.657851543604064</t>
-  </si>
-  <si>
-    <t>Advancerettek1</t>
-  </si>
-  <si>
-    <t>-0.165490952239192</t>
-  </si>
-  <si>
-    <t>0.151824530577199</t>
-  </si>
-  <si>
-    <t>0.0358830229390417</t>
-  </si>
-  <si>
-    <t>0.687884504806632</t>
-  </si>
-  <si>
-    <t>-0.102250197200126</t>
-  </si>
-  <si>
-    <t>0.20369850804814</t>
-  </si>
-  <si>
-    <t>-0.0466179316570275</t>
-  </si>
-  <si>
-    <t>0.637012154952412</t>
-  </si>
-  <si>
-    <t>Advancerettek2</t>
-  </si>
-  <si>
-    <t>0.0252485145245786</t>
-  </si>
-  <si>
-    <t>0.866228349119792</t>
-  </si>
-  <si>
-    <t>0.214393716323103</t>
-  </si>
-  <si>
-    <t>0.139026484586711</t>
-  </si>
-  <si>
-    <t>-0.0632171074331528</t>
-  </si>
-  <si>
-    <t>0.592003678724283</t>
-  </si>
-  <si>
-    <t>-0.0682041904919168</t>
-  </si>
-  <si>
-    <t>0.626127003895415</t>
-  </si>
-  <si>
-    <t>Advancerettek3</t>
-  </si>
-  <si>
-    <t>-0.157317725434609</t>
-  </si>
-  <si>
-    <t>0.302671661057581</t>
-  </si>
-  <si>
-    <t>-0.490424505187585</t>
-  </si>
-  <si>
-    <t>0.00104472642032504</t>
-  </si>
-  <si>
-    <t>-0.244932698015289</t>
-  </si>
-  <si>
-    <t>0.0547529893272186</t>
-  </si>
-  <si>
-    <t>-0.283365961614347</t>
-  </si>
-  <si>
-    <t>0.0562672238437022</t>
+    <t xml:space="preserve">0.0699627944724724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.654425278821917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.142519094005413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.417811841942452</t>
+  </si>
+  <si>
+    <t xml:space="preserve">factor(bra10grp_code)4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0248109718196168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.838027548234778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.141385344803236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.187845463699358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.00905600426388179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.923719375297611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.104190010066825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.313920312174417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">factor(bra10grp_code)5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.347970779033825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0374062152374704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.067383880870658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.616513273720838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.107694208484811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.324275210924594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.211549802068897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.140442187208255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">factor(bra10grp_code)6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0983202943653256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.540331860516155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0903032157892806</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.466959241623667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0220205712184863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.871295692232414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.191679706595459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.162827319185899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">factor(bra10grp_code)7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.411088698263052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00726018108784477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0883030329828427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.684543740879331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0464182797096798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.831315351104191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.108272519355556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.627860055347289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">factor(bra10grp_code)8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.14205039856984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.291404414019607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.133631172331204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.278157575550901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.113802837062875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.575759695693739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0465087995437349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.720931529457695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">factor(udgrp)2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.239875354490133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0633972931305277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.105869720532377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.350454506132735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.00927004184987675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.919100771788521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00779475658607315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.945746374582695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">factor(udgrp)3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.100219995167931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.523763581406314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.165862666703999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.181824186293281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0548756682556155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.621576913184696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0112216618907099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.930974973174249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">factor(aldergrp)2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.280456404113265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00636606351891673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.338574967682421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.000637873730698062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.123955810523261</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.287609017478216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.390200922269678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.000103187520374398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">factor(aldergrp)3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.621585362576525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0000975632382825225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.550505056037416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00029002119853319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.367518332133901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.033772495090964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.658878901854229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0000147026804205393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">factor(loengrp)2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0267701481506306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.856963594733944</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.127163413623719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.357226329253681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.110666447189673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.46205175512072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.076214900868596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.599525072816802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">factor(loengrp)3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0204866650299134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.911414765414366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.249222995840573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0923573785436216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.291854902473441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0386261847773042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.129358737387523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.450833718032272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">factor(loengrp)4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.040954330457389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.784758691998658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0320616242256434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.807557327891219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0915130801258983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.434409708944806</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.236825355607626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0720553156669271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leveremodtageoutput</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.109446027460149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.599465141095096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.103548546790176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.459761299562963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.180485517478273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.169956135142941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.210318372969123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.223168397672694</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Startovervågestopperobottter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0743522994053788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.742099924941389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.187877952715507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.284164077644837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.162417647807981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.328456427109961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0926566343644065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.657851543604064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Advancerettek1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.165490952239192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.151824530577199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0358830229390417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.687884504806632</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.102250197200126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.20369850804814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0466179316570275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.637012154952412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Advancerettek2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0252485145245786</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.866228349119792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.214393716323103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.139026484586711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0632171074331528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.592003678724283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0682041904919168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.626127003895415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Advancerettek3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.157317725434609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.302671661057581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.490424505187585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00104472642032504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.244932698015289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0547529893272186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.283365961614347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0562672238437022</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -629,15 +622,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -919,14 +903,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -967,7 +951,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -1008,7 +992,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -1049,7 +1033,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4">
       <c r="A4" t="s">
         <v>34</v>
       </c>
@@ -1090,7 +1074,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5">
       <c r="A5" t="s">
         <v>43</v>
       </c>
@@ -1131,7 +1115,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6">
       <c r="A6" t="s">
         <v>53</v>
       </c>
@@ -1172,7 +1156,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7">
       <c r="A7" t="s">
         <v>62</v>
       </c>
@@ -1213,7 +1197,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8">
       <c r="A8" t="s">
         <v>72</v>
       </c>
@@ -1254,7 +1238,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9">
       <c r="A9" t="s">
         <v>81</v>
       </c>
@@ -1295,7 +1279,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10">
       <c r="A10" t="s">
         <v>90</v>
       </c>
@@ -1336,7 +1320,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11">
       <c r="A11" t="s">
         <v>99</v>
       </c>
@@ -1377,7 +1361,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12">
       <c r="A12" t="s">
         <v>108</v>
       </c>
@@ -1418,7 +1402,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13">
       <c r="A13" t="s">
         <v>117</v>
       </c>
@@ -1459,7 +1443,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14">
       <c r="A14" t="s">
         <v>126</v>
       </c>
@@ -1500,7 +1484,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15">
       <c r="A15" t="s">
         <v>135</v>
       </c>
@@ -1541,7 +1525,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16">
       <c r="A16" t="s">
         <v>144</v>
       </c>
@@ -1582,7 +1566,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17">
       <c r="A17" t="s">
         <v>153</v>
       </c>
@@ -1623,7 +1607,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18">
       <c r="A18" t="s">
         <v>162</v>
       </c>
@@ -1664,7 +1648,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19">
       <c r="A19" t="s">
         <v>171</v>
       </c>
@@ -1705,7 +1689,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20">
       <c r="A20" t="s">
         <v>180</v>
       </c>
@@ -1748,6 +1732,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>